--- a/documents/templates/tsenovaya_politika.xlsx
+++ b/documents/templates/tsenovaya_politika.xlsx
@@ -5,14 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="176" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="695" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
@@ -23,9 +23,11 @@
   </numFmts>
   <fonts count="4">
     <font>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
       <family val="2"/>
-      <sz val="10"/>
+      <color rgb="00000000"/>
+      <sz val="12"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -111,15 +113,15 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.4"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -131,20 +133,20 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.4"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -156,20 +158,20 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.4"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>